--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Bonds/BondAssets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Bonds/BondAssets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Bonds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Bonds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DE6258-F6CD-4292-B408-B83005396AC0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B72D035-F006-4454-B452-E6A6AE362B15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12315" windowHeight="13035" tabRatio="497" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="1230" windowWidth="21600" windowHeight="13845" tabRatio="497" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,15 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Priceable Bond Assets'!$A$1:$N$58</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>IR Term Structure</t>
   </si>
@@ -330,13 +338,16 @@
   </si>
   <si>
     <t>DeltaR</t>
+  </si>
+  <si>
+    <t>BHP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -352,6 +363,7 @@
     <numFmt numFmtId="174" formatCode="0.0000%"/>
     <numFmt numFmtId="175" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -1677,7 +1689,7 @@
     <xf numFmtId="9" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="45" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1891,10 +1903,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="47" borderId="7" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="47" borderId="22" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="47" borderId="28" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1908,6 +1916,9 @@
     <xf numFmtId="2" fontId="2" fillId="47" borderId="7" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="47" borderId="22" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="47" borderId="28" xfId="113" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="113" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="_Copy of Portfolios to Archeus 6-3-04 (2)" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3061,7 +3072,7 @@
     <row r="49" spans="2:13">
       <c r="B49" s="98" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 16-Jun-18</v>
+        <v>Last Update 04-Jun-19</v>
       </c>
       <c r="C49" s="91"/>
       <c r="D49" s="91"/>
@@ -3105,7 +3116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3122,9 +3133,9 @@
       <c r="B1" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="100" t="e">
+      <c r="C1" s="100" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve_Old( B2:C11, B17:B40, C17:C40, D17:D40)</f>
-        <v>#VALUE!</v>
+        <v>Market.LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
       <c r="D1" s="26"/>
     </row>
@@ -3143,12 +3154,12 @@
       </c>
       <c r="C3" s="104">
         <f ca="1">NOW()</f>
-        <v>43267.688685069443</v>
+        <v>43620.688124768516</v>
       </c>
       <c r="D3" s="26"/>
       <c r="I3" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 16/06/2018, 9:34 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 3/06/2019, 12:12 PM</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -3157,7 +3168,7 @@
       </c>
       <c r="C4" s="106">
         <f ca="1">C3</f>
-        <v>43267.688685069443</v>
+        <v>43620.688124768516</v>
       </c>
       <c r="D4" s="26"/>
     </row>
@@ -3786,8 +3797,8 @@
   </sheetPr>
   <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -3862,9 +3873,9 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="12" thickBot="1">
-      <c r="A2" s="7" t="e">
+      <c r="A2" s="7" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateSimpleBond(B2, B38, E2, F2, G2)</f>
-        <v>#VALUE!</v>
+        <v>AUD-Bond-AGB.0.04.28/02/2022</v>
       </c>
       <c r="B2" s="13" t="str">
         <f>C2&amp;"-Bond-"&amp;D2</f>
@@ -3878,7 +3889,7 @@
       </c>
       <c r="E2" s="83">
         <f ca="1">TODAY()+1000</f>
-        <v>44267</v>
+        <v>44620</v>
       </c>
       <c r="F2" s="36">
         <v>0.04</v>
@@ -3913,9 +3924,9 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="13" t="e">
+      <c r="A3" s="13" t="str">
         <f t="array" aca="1" ref="A3:A22" ca="1">_xll.HLV5r3.Financial.Cache.CreateSimpleBonds(B3:B22, $B$38, E3:E22, F3:F22, G3:G22)</f>
-        <v>#VALUE!</v>
+        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
       </c>
       <c r="B3" s="13" t="str">
         <f>C3&amp;"-Bond-"&amp;D3</f>
@@ -3929,7 +3940,7 @@
       </c>
       <c r="E3" s="83">
         <f ca="1">TODAY()+363</f>
-        <v>43630</v>
+        <v>43983</v>
       </c>
       <c r="F3" s="36">
         <v>0.04</v>
@@ -3941,73 +3952,73 @@
         <v>78</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="14" t="e">
+      <c r="J3" s="14" t="str">
         <f t="array" aca="1" ref="J3:X22" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet($H$2:$H$7,$B$36, A3:A22, $B$38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K3" s="15" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L3" s="37" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M3" s="15" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N3" s="129" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O3" s="15" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P3" s="119" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q3" s="16" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+      </c>
+      <c r="K3" s="15" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L3" s="37">
+        <f ca="1"/>
+        <v>1.00054120178748</v>
+      </c>
+      <c r="M3" s="15" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N3" s="127">
+        <f ca="1"/>
+        <v>100.03219501341682</v>
+      </c>
+      <c r="O3" s="15" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P3" s="117">
+        <f ca="1"/>
+        <v>9.7348357975800652E-3</v>
+      </c>
+      <c r="Q3" s="16" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R3" s="84" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S3" s="16" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T3" s="51" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U3" s="15" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V3" s="40" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W3" s="15" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X3" s="16" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y3" s="43"/>
       <c r="Z3" s="46"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A4" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
       </c>
       <c r="B4" s="13" t="str">
         <f t="shared" ref="B4:B22" si="0">C4&amp;"-Bond-"&amp;D4</f>
@@ -4021,7 +4032,7 @@
       </c>
       <c r="E4" s="83">
         <f t="shared" ref="E4:E22" ca="1" si="1">E3+400</f>
-        <v>44030</v>
+        <v>44383</v>
       </c>
       <c r="F4" s="36">
         <v>0.04</v>
@@ -4033,73 +4044,73 @@
         <v>79</v>
       </c>
       <c r="I4" s="18"/>
-      <c r="J4" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M4" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N4" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O4" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P4" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q4" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J4" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L4" s="38">
+        <f ca="1"/>
+        <v>1.01665764066454</v>
+      </c>
+      <c r="M4" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N4" s="128">
+        <f ca="1"/>
+        <v>101.64348573666913</v>
+      </c>
+      <c r="O4" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P4" s="118">
+        <f ca="1"/>
+        <v>2.3933118071269927E-2</v>
+      </c>
+      <c r="Q4" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R4" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S4" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T4" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U4" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V4" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W4" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X4" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y4" s="44"/>
       <c r="Z4" s="45"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A5" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
       </c>
       <c r="B5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4113,7 +4124,7 @@
       </c>
       <c r="E5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44430</v>
+        <v>44783</v>
       </c>
       <c r="F5" s="36">
         <v>0.04</v>
@@ -4125,73 +4136,73 @@
         <v>44</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O5" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P5" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q5" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J5" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L5" s="38">
+        <f ca="1"/>
+        <v>1.0127720614331199</v>
+      </c>
+      <c r="M5" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N5" s="128">
+        <f ca="1"/>
+        <v>101.25501295941307</v>
+      </c>
+      <c r="O5" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P5" s="118">
+        <f ca="1"/>
+        <v>3.2740001264981632E-2</v>
+      </c>
+      <c r="Q5" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R5" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S5" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T5" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U5" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V5" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W5" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X5" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="44"/>
       <c r="Z5" s="45"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A6" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
       </c>
       <c r="B6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4205,7 +4216,7 @@
       </c>
       <c r="E6" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44830</v>
+        <v>45183</v>
       </c>
       <c r="F6" s="36">
         <v>0.04</v>
@@ -4215,73 +4226,73 @@
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J6" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L6" s="38">
+        <f ca="1"/>
+        <v>1.00908131705403</v>
+      </c>
+      <c r="M6" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N6" s="128">
+        <f ca="1"/>
+        <v>100.88601939791432</v>
+      </c>
+      <c r="O6" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P6" s="118">
+        <f ca="1"/>
+        <v>4.1219483287832544E-2</v>
+      </c>
+      <c r="Q6" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R6" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S6" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T6" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U6" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V6" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W6" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X6" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="44"/>
       <c r="Z6" s="45"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A7" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
       </c>
       <c r="B7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4295,7 +4306,7 @@
       </c>
       <c r="E7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45230</v>
+        <v>45583</v>
       </c>
       <c r="F7" s="36">
         <v>0.04</v>
@@ -4305,73 +4316,73 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J7" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L7" s="38">
+        <f ca="1"/>
+        <v>1.00531642512639</v>
+      </c>
+      <c r="M7" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N7" s="128">
+        <f ca="1"/>
+        <v>100.50961270637848</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P7" s="118">
+        <f ca="1"/>
+        <v>4.9226172101913879E-2</v>
+      </c>
+      <c r="Q7" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R7" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S7" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T7" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U7" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V7" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W7" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X7" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y7" s="44"/>
       <c r="Z7" s="45"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A8" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.22/11/2025</v>
       </c>
       <c r="B8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4385,7 +4396,7 @@
       </c>
       <c r="E8" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45630</v>
+        <v>45983</v>
       </c>
       <c r="F8" s="36">
         <v>0.04</v>
@@ -4395,73 +4406,73 @@
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N8" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O8" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P8" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q8" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J8" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.22/11/2025</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L8" s="38">
+        <f ca="1"/>
+        <v>1.00161564837228</v>
+      </c>
+      <c r="M8" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N8" s="128">
+        <f ca="1"/>
+        <v>100.13961612722022</v>
+      </c>
+      <c r="O8" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P8" s="118">
+        <f ca="1"/>
+        <v>5.6882314839381963E-2</v>
+      </c>
+      <c r="Q8" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R8" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S8" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T8" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U8" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V8" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W8" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X8" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="44"/>
       <c r="Z8" s="45"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A9" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.27/12/2026</v>
       </c>
       <c r="B9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4475,7 +4486,7 @@
       </c>
       <c r="E9" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>46030</v>
+        <v>46383</v>
       </c>
       <c r="F9" s="36">
         <v>0.04</v>
@@ -4485,73 +4496,73 @@
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N9" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O9" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P9" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q9" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J9" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.27/12/2026</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L9" s="38">
+        <f ca="1"/>
+        <v>1.0176720437032101</v>
+      </c>
+      <c r="M9" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N9" s="128">
+        <f ca="1"/>
+        <v>101.74490381161212</v>
+      </c>
+      <c r="O9" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P9" s="118">
+        <f ca="1"/>
+        <v>6.9094148293932178E-2</v>
+      </c>
+      <c r="Q9" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R9" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S9" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T9" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U9" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V9" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W9" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X9" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y9" s="44"/>
       <c r="Z9" s="45"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A10" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.31/01/2028</v>
       </c>
       <c r="B10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4565,7 +4576,7 @@
       </c>
       <c r="E10" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>46430</v>
+        <v>46783</v>
       </c>
       <c r="F10" s="36">
         <v>0.04</v>
@@ -4575,73 +4586,73 @@
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N10" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O10" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P10" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q10" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J10" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.31/01/2028</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L10" s="38">
+        <f ca="1"/>
+        <v>1.01388070909804</v>
+      </c>
+      <c r="M10" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N10" s="128">
+        <f ca="1"/>
+        <v>101.36585343176976</v>
+      </c>
+      <c r="O10" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P10" s="118">
+        <f ca="1"/>
+        <v>7.6008949096342496E-2</v>
+      </c>
+      <c r="Q10" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R10" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S10" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T10" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U10" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V10" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W10" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X10" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="44"/>
       <c r="Z10" s="45"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A11" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.6/03/2029</v>
       </c>
       <c r="B11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4655,7 +4666,7 @@
       </c>
       <c r="E11" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>46830</v>
+        <v>47183</v>
       </c>
       <c r="F11" s="36">
         <v>0.04</v>
@@ -4665,73 +4676,73 @@
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O11" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P11" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q11" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J11" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.6/03/2029</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L11" s="38">
+        <f ca="1"/>
+        <v>1.0099504938362101</v>
+      </c>
+      <c r="M11" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N11" s="128">
+        <f ca="1"/>
+        <v>100.97291802959569</v>
+      </c>
+      <c r="O11" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P11" s="118">
+        <f ca="1"/>
+        <v>8.2601629578798144E-2</v>
+      </c>
+      <c r="Q11" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R11" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S11" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T11" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U11" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V11" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W11" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X11" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="44"/>
       <c r="Z11" s="45"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A12" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.10/04/2030</v>
       </c>
       <c r="B12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4745,7 +4756,7 @@
       </c>
       <c r="E12" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>47230</v>
+        <v>47583</v>
       </c>
       <c r="F12" s="36">
         <v>0.04</v>
@@ -4755,73 +4766,73 @@
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N12" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O12" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P12" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q12" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J12" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.10/04/2030</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L12" s="38">
+        <f ca="1"/>
+        <v>1.0061870929293499</v>
+      </c>
+      <c r="M12" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N12" s="128">
+        <f ca="1"/>
+        <v>100.59666040746464</v>
+      </c>
+      <c r="O12" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P12" s="118">
+        <f ca="1"/>
+        <v>8.8855473217548359E-2</v>
+      </c>
+      <c r="Q12" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R12" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S12" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T12" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U12" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V12" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W12" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X12" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="44"/>
       <c r="Z12" s="45"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A13" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.15/05/2031</v>
       </c>
       <c r="B13" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4835,7 +4846,7 @@
       </c>
       <c r="E13" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>47630</v>
+        <v>47983</v>
       </c>
       <c r="F13" s="36">
         <v>0.04</v>
@@ -4845,73 +4856,73 @@
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N13" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O13" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P13" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q13" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J13" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.15/05/2031</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L13" s="38">
+        <f ca="1"/>
+        <v>1.00237051066565</v>
+      </c>
+      <c r="M13" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N13" s="128">
+        <f ca="1"/>
+        <v>100.21508581502896</v>
+      </c>
+      <c r="O13" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P13" s="118">
+        <f ca="1"/>
+        <v>9.4813454129314897E-2</v>
+      </c>
+      <c r="Q13" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R13" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S13" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T13" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U13" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V13" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W13" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="44"/>
       <c r="Z13" s="45"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A14" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.17/06/2032</v>
       </c>
       <c r="B14" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4925,7 +4936,7 @@
       </c>
       <c r="E14" s="83">
         <f ca="1">E13+399</f>
-        <v>48029</v>
+        <v>48382</v>
       </c>
       <c r="F14" s="36">
         <v>0.04</v>
@@ -4935,73 +4946,73 @@
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N14" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O14" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P14" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q14" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J14" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.17/06/2032</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L14" s="38">
+        <f ca="1"/>
+        <v>1.01877993094173</v>
+      </c>
+      <c r="M14" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N14" s="128">
+        <f ca="1"/>
+        <v>101.85566825799225</v>
+      </c>
+      <c r="O14" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P14" s="118">
+        <f ca="1"/>
+        <v>0.10549556075384504</v>
+      </c>
+      <c r="Q14" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R14" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S14" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T14" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U14" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V14" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W14" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X14" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="44"/>
       <c r="Z14" s="45"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A15" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.22/07/2033</v>
       </c>
       <c r="B15" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5015,7 +5026,7 @@
       </c>
       <c r="E15" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>48429</v>
+        <v>48782</v>
       </c>
       <c r="F15" s="36">
         <v>0.04</v>
@@ -5025,73 +5036,73 @@
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L15" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N15" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O15" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q15" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J15" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.22/07/2033</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L15" s="38">
+        <f ca="1"/>
+        <v>1.0148795295861801</v>
+      </c>
+      <c r="M15" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N15" s="128">
+        <f ca="1"/>
+        <v>101.46571359312496</v>
+      </c>
+      <c r="O15" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P15" s="118">
+        <f ca="1"/>
+        <v>0.11083595989690487</v>
+      </c>
+      <c r="Q15" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R15" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S15" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T15" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U15" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V15" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W15" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X15" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="44"/>
       <c r="Z15" s="45"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A16" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.26/08/2034</v>
       </c>
       <c r="B16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5105,7 +5116,7 @@
       </c>
       <c r="E16" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>48829</v>
+        <v>49182</v>
       </c>
       <c r="F16" s="36">
         <v>0.04</v>
@@ -5115,73 +5126,73 @@
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M16" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N16" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O16" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P16" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q16" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J16" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.26/08/2034</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L16" s="38">
+        <f ca="1"/>
+        <v>1.0110007461444099</v>
+      </c>
+      <c r="M16" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N16" s="128">
+        <f ca="1"/>
+        <v>101.07792024591569</v>
+      </c>
+      <c r="O16" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P16" s="118">
+        <f ca="1"/>
+        <v>0.11593876086417822</v>
+      </c>
+      <c r="Q16" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R16" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S16" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T16" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U16" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V16" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W16" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X16" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="44"/>
       <c r="Z16" s="45"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A17" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.30/09/2035</v>
       </c>
       <c r="B17" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5195,7 +5206,7 @@
       </c>
       <c r="E17" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>49229</v>
+        <v>49582</v>
       </c>
       <c r="F17" s="36">
         <v>0.04</v>
@@ -5205,73 +5216,73 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L17" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M17" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N17" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O17" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P17" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q17" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J17" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.30/09/2035</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L17" s="38">
+        <f ca="1"/>
+        <v>1.00734520692108</v>
+      </c>
+      <c r="M17" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N17" s="128">
+        <f ca="1"/>
+        <v>100.71244642853159</v>
+      </c>
+      <c r="O17" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P17" s="118">
+        <f ca="1"/>
+        <v>0.12087885757594044</v>
+      </c>
+      <c r="Q17" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R17" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S17" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T17" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U17" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V17" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W17" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X17" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y17" s="44"/>
       <c r="Z17" s="45"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A18" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.3/11/2036</v>
       </c>
       <c r="B18" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5285,7 +5296,7 @@
       </c>
       <c r="E18" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>49629</v>
+        <v>49982</v>
       </c>
       <c r="F18" s="36">
         <v>0.04</v>
@@ -5295,73 +5306,73 @@
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N18" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O18" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P18" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q18" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J18" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.3/11/2036</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L18" s="38">
+        <f ca="1"/>
+        <v>1.0036658841074</v>
+      </c>
+      <c r="M18" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N18" s="128">
+        <f ca="1"/>
+        <v>100.34459477328957</v>
+      </c>
+      <c r="O18" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P18" s="118">
+        <f ca="1"/>
+        <v>0.12550342756962579</v>
+      </c>
+      <c r="Q18" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R18" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S18" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T18" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U18" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V18" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W18" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X18" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="44"/>
       <c r="Z18" s="45"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A19" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.8/12/2037</v>
       </c>
       <c r="B19" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5375,7 +5386,7 @@
       </c>
       <c r="E19" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>50029</v>
+        <v>50382</v>
       </c>
       <c r="F19" s="36">
         <v>0.04</v>
@@ -5385,73 +5396,73 @@
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M19" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O19" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q19" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J19" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.8/12/2037</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L19" s="38">
+        <f ca="1"/>
+        <v>1.01977806063438</v>
+      </c>
+      <c r="M19" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N19" s="128">
+        <f ca="1"/>
+        <v>101.95545935493605</v>
+      </c>
+      <c r="O19" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P19" s="118">
+        <f ca="1"/>
+        <v>0.13483017534937086</v>
+      </c>
+      <c r="Q19" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R19" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S19" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T19" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U19" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V19" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W19" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X19" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y19" s="44"/>
       <c r="Z19" s="45"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A20" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.12/01/2039</v>
       </c>
       <c r="B20" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5465,7 +5476,7 @@
       </c>
       <c r="E20" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>50429</v>
+        <v>50782</v>
       </c>
       <c r="F20" s="36">
         <v>0.04</v>
@@ -5475,73 +5486,73 @@
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M20" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N20" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O20" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P20" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q20" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J20" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.12/01/2039</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L20" s="38">
+        <f ca="1"/>
+        <v>1.01599048422593</v>
+      </c>
+      <c r="M20" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N20" s="128">
+        <f ca="1"/>
+        <v>101.5767847124112</v>
+      </c>
+      <c r="O20" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P20" s="118">
+        <f ca="1"/>
+        <v>0.13896645435225971</v>
+      </c>
+      <c r="Q20" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R20" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S20" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T20" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U20" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V20" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W20" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X20" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="44"/>
       <c r="Z20" s="45"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A21" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.16/02/2040</v>
       </c>
       <c r="B21" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5555,7 +5566,7 @@
       </c>
       <c r="E21" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>50829</v>
+        <v>51182</v>
       </c>
       <c r="F21" s="36">
         <v>0.04</v>
@@ -5565,73 +5576,73 @@
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M21" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N21" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O21" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P21" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q21" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J21" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.16/02/2040</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L21" s="38">
+        <f ca="1"/>
+        <v>1.0121074548097999</v>
+      </c>
+      <c r="M21" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N21" s="128">
+        <f ca="1"/>
+        <v>101.18856686080925</v>
+      </c>
+      <c r="O21" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P21" s="118">
+        <f ca="1"/>
+        <v>0.1428859075967652</v>
+      </c>
+      <c r="Q21" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R21" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S21" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T21" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U21" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V21" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W21" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X21" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y21" s="44"/>
       <c r="Z21" s="45"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="13" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="A22" s="13" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.22/03/2041</v>
       </c>
       <c r="B22" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5645,7 +5656,7 @@
       </c>
       <c r="E22" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>51229</v>
+        <v>51582</v>
       </c>
       <c r="F22" s="36">
         <v>0.04</v>
@@ -5655,65 +5666,65 @@
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="19" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M22" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N22" s="130" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O22" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P22" s="120" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q22" s="20" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J22" s="19" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.22/03/2041</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L22" s="38">
+        <f ca="1"/>
+        <v>1.0082128882968999</v>
+      </c>
+      <c r="M22" s="10" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="N22" s="128">
+        <f ca="1"/>
+        <v>100.79919555234626</v>
+      </c>
+      <c r="O22" s="10" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="P22" s="118">
+        <f ca="1"/>
+        <v>0.14662808581826764</v>
+      </c>
+      <c r="Q22" s="20" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
       </c>
       <c r="R22" s="85" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S22" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T22" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U22" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V22" s="41" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="W22" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="X22" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Y22" s="44"/>
       <c r="Z22" s="45"/>
@@ -5732,9 +5743,9 @@
       <c r="K23" s="10"/>
       <c r="L23" s="38"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="130"/>
+      <c r="N23" s="128"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="120"/>
+      <c r="P23" s="118"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
@@ -5760,9 +5771,9 @@
       <c r="K24" s="10"/>
       <c r="L24" s="38"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="130"/>
+      <c r="N24" s="128"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="120"/>
+      <c r="P24" s="118"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
@@ -5790,9 +5801,9 @@
       <c r="K25" s="10"/>
       <c r="L25" s="38"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="130"/>
+      <c r="N25" s="128"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="120"/>
+      <c r="P25" s="118"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
@@ -5821,9 +5832,9 @@
       <c r="K26" s="10"/>
       <c r="L26" s="38"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="130"/>
+      <c r="N26" s="128"/>
       <c r="O26" s="10"/>
-      <c r="P26" s="120"/>
+      <c r="P26" s="118"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
@@ -5851,9 +5862,9 @@
       <c r="K27" s="10"/>
       <c r="L27" s="38"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="130"/>
+      <c r="N27" s="128"/>
       <c r="O27" s="10"/>
-      <c r="P27" s="120"/>
+      <c r="P27" s="118"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
       <c r="S27" s="20"/>
@@ -5881,9 +5892,9 @@
       <c r="K28" s="10"/>
       <c r="L28" s="38"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="130"/>
+      <c r="N28" s="128"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="120"/>
+      <c r="P28" s="118"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
       <c r="S28" s="20"/>
@@ -5911,9 +5922,9 @@
       <c r="K29" s="10"/>
       <c r="L29" s="38"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="130"/>
+      <c r="N29" s="128"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="120"/>
+      <c r="P29" s="118"/>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
       <c r="S29" s="20"/>
@@ -5941,9 +5952,9 @@
       <c r="K30" s="10"/>
       <c r="L30" s="38"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="130"/>
+      <c r="N30" s="128"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="120"/>
+      <c r="P30" s="118"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
@@ -5971,9 +5982,9 @@
       <c r="K31" s="10"/>
       <c r="L31" s="38"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="130"/>
+      <c r="N31" s="128"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="120"/>
+      <c r="P31" s="118"/>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
@@ -6001,9 +6012,9 @@
       <c r="K32" s="10"/>
       <c r="L32" s="38"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="130"/>
+      <c r="N32" s="128"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="120"/>
+      <c r="P32" s="118"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
       <c r="S32" s="20"/>
@@ -6031,9 +6042,9 @@
       <c r="K33" s="10"/>
       <c r="L33" s="38"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="130"/>
+      <c r="N33" s="128"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="120"/>
+      <c r="P33" s="118"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
       <c r="S33" s="20"/>
@@ -6061,9 +6072,9 @@
       <c r="K34" s="24"/>
       <c r="L34" s="39"/>
       <c r="M34" s="24"/>
-      <c r="N34" s="131"/>
+      <c r="N34" s="129"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="121"/>
+      <c r="P34" s="119"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -6079,9 +6090,9 @@
       <c r="A36" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="60" t="e">
+      <c r="B36" s="60" t="str">
         <f ca="1">AUDCurve!C1</f>
-        <v>#VALUE!</v>
+        <v>Market.LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
@@ -6096,9 +6107,8 @@
       <c r="A37" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="60" t="str">
-        <f>"Orion.Instrument"</f>
-        <v>Orion.Instrument</v>
+      <c r="B37" s="60" t="s">
+        <v>80</v>
       </c>
       <c r="C37" s="60"/>
       <c r="H37" s="6" t="str">
@@ -6128,11 +6138,11 @@
       </c>
       <c r="B38" s="106">
         <f ca="1">AUDCurve!C4</f>
-        <v>43267.688685069443</v>
-      </c>
-      <c r="D38" s="6" t="e">
-        <f ca="1">_xll.HLV5r3.Financial.Cache.GetBondAssetSwapSpread( B38, B39, B40, E2, B43, F2, B42, B41, B37, B44, B45, G2, B36)</f>
-        <v>#VALUE!</v>
+        <v>43620.688124768516</v>
+      </c>
+      <c r="D38" s="6">
+        <f ca="1">_xll.HLV5r3.Financial.Cache.GetBondAssetSwapSpread(A2, B38, B39, B40, E2, B43, F2, B42, B41, B37, B44, B45, G2, B36)</f>
+        <v>-2.1051484339508375E-4</v>
       </c>
       <c r="H38" s="6" t="str">
         <v>NPV</v>
@@ -6170,60 +6180,60 @@
       <c r="A39" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="117">
+      <c r="B39" s="106">
         <f ca="1">B38+3</f>
-        <v>43270.688685069443</v>
+        <v>43623.688124768516</v>
       </c>
       <c r="H39" s="6" t="str">
         <v>AccruedInterest</v>
       </c>
-      <c r="J39" s="122" t="e">
+      <c r="J39" s="120" t="str">
         <f t="array" aca="1" ref="J39:U58" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsRawData( $H$2:$H$7, $B$36, A3:A22, $B$38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" s="125" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L39" s="37" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+      </c>
+      <c r="K39" s="123" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L39" s="37">
+        <f ca="1"/>
+        <v>1.00054120178748</v>
       </c>
       <c r="M39" s="15" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N39" s="16" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O39" s="15" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P39" s="54" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R39" s="57" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S39" s="16" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T39" s="51" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U39" s="15" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V39" s="40"/>
       <c r="W39" s="15"/>
@@ -6233,59 +6243,59 @@
       <c r="A40" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="118">
-        <v>43327</v>
+      <c r="B40" s="106">
+        <v>43692</v>
       </c>
       <c r="H40" s="6" t="str">
         <v>ImpliedQuote</v>
       </c>
-      <c r="J40" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L40" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J40" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+      </c>
+      <c r="K40" s="124" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="L40" s="38">
+        <f ca="1"/>
+        <v>100.03219501341682</v>
       </c>
       <c r="M40" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N40" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O40" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P40" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q40" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R40" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S40" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T40" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U40" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V40" s="41"/>
       <c r="W40" s="10"/>
@@ -6301,53 +6311,53 @@
       <c r="H41" s="6" t="str">
         <v>Convexity</v>
       </c>
-      <c r="J41" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K41" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L41" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J41" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+      </c>
+      <c r="K41" s="124" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="L41" s="38">
+        <f ca="1"/>
+        <v>9.7348357975800652E-3</v>
       </c>
       <c r="M41" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N41" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O41" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P41" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q41" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R41" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S41" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T41" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U41" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V41" s="41"/>
       <c r="W41" s="10"/>
@@ -6363,53 +6373,53 @@
       <c r="H42" s="6" t="str">
         <v>DeltaR</v>
       </c>
-      <c r="J42" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K42" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L42" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J42" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+      </c>
+      <c r="K42" s="124" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
+      </c>
+      <c r="L42" s="38">
+        <f ca="1"/>
+        <v>-1.9621107309635808E-4</v>
       </c>
       <c r="M42" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N42" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O42" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P42" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q42" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R42" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S42" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T42" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U42" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V42" s="41"/>
       <c r="W42" s="10"/>
@@ -6419,59 +6429,59 @@
       <c r="A43" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="130">
         <v>1000000</v>
       </c>
       <c r="H43" s="6" t="str">
         <v>DV01</v>
       </c>
-      <c r="J43" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K43" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L43" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J43" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+      </c>
+      <c r="K43" s="124" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L43" s="38">
+        <f ca="1"/>
+        <v>1.01665764066454</v>
       </c>
       <c r="M43" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N43" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O43" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P43" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q43" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R43" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S43" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T43" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U43" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V43" s="41"/>
       <c r="W43" s="10"/>
@@ -6487,53 +6497,53 @@
       <c r="H44" s="6" t="str">
         <v>MarketQuote</v>
       </c>
-      <c r="J44" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K44" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L44" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J44" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+      </c>
+      <c r="K44" s="124" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="L44" s="38">
+        <f ca="1"/>
+        <v>101.64348573666913</v>
       </c>
       <c r="M44" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N44" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O44" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P44" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q44" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R44" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S44" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T44" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U44" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V44" s="41"/>
       <c r="W44" s="10"/>
@@ -6549,53 +6559,53 @@
       <c r="H45" s="6" t="str">
         <v>AssetSwapSpread</v>
       </c>
-      <c r="J45" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L45" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J45" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+      </c>
+      <c r="K45" s="124" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="L45" s="38">
+        <f ca="1"/>
+        <v>2.3933118071269927E-2</v>
       </c>
       <c r="M45" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N45" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O45" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P45" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q45" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R45" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S45" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T45" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U45" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V45" s="41"/>
       <c r="W45" s="10"/>
@@ -6605,53 +6615,53 @@
       <c r="H46" s="6" t="str">
         <v>ZSpread</v>
       </c>
-      <c r="J46" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L46" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J46" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+      </c>
+      <c r="K46" s="124" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
+      </c>
+      <c r="L46" s="38">
+        <f ca="1"/>
+        <v>-2.1166962535973128E-4</v>
       </c>
       <c r="M46" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N46" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O46" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P46" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q46" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R46" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S46" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T46" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U46" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V46" s="41"/>
       <c r="W46" s="10"/>
@@ -6661,53 +6671,53 @@
       <c r="H47" s="6" t="str">
         <v>YieldToMaturity</v>
       </c>
-      <c r="J47" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L47" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J47" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+      </c>
+      <c r="K47" s="124" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L47" s="38">
+        <f ca="1"/>
+        <v>1.0127720614331199</v>
       </c>
       <c r="M47" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N47" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O47" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P47" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q47" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R47" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S47" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T47" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U47" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V47" s="41"/>
       <c r="W47" s="10"/>
@@ -6717,53 +6727,53 @@
       <c r="H48" s="6" t="str">
         <v>PandL</v>
       </c>
-      <c r="J48" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L48" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J48" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+      </c>
+      <c r="K48" s="124" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="L48" s="38">
+        <f ca="1"/>
+        <v>101.25501295941307</v>
       </c>
       <c r="M48" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N48" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O48" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P48" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q48" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R48" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S48" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T48" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U48" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V48" s="41"/>
       <c r="W48" s="10"/>
@@ -6773,538 +6783,538 @@
       <c r="H49" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J49" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L49" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J49" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+      </c>
+      <c r="K49" s="124" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="L49" s="38">
+        <f ca="1"/>
+        <v>3.2740001264981632E-2</v>
       </c>
       <c r="M49" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N49" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O49" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P49" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q49" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R49" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S49" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T49" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U49" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V49" s="41"/>
       <c r="W49" s="10"/>
       <c r="X49" s="20"/>
     </row>
     <row r="50" spans="8:24">
-      <c r="J50" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L50" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J50" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+      </c>
+      <c r="K50" s="124" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
+      </c>
+      <c r="L50" s="38">
+        <f ca="1"/>
+        <v>-1.8115544065193577E-4</v>
       </c>
       <c r="M50" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N50" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O50" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P50" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q50" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R50" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S50" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T50" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U50" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V50" s="41"/>
       <c r="W50" s="10"/>
       <c r="X50" s="20"/>
     </row>
     <row r="51" spans="8:24">
-      <c r="J51" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J51" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+      </c>
+      <c r="K51" s="124" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L51" s="38">
+        <f ca="1"/>
+        <v>1.00908131705403</v>
       </c>
       <c r="M51" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N51" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O51" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P51" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q51" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R51" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S51" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T51" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U51" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V51" s="41"/>
       <c r="W51" s="10"/>
       <c r="X51" s="20"/>
     </row>
     <row r="52" spans="8:24">
-      <c r="J52" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J52" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+      </c>
+      <c r="K52" s="124" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="L52" s="38">
+        <f ca="1"/>
+        <v>100.88601939791432</v>
       </c>
       <c r="M52" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N52" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O52" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P52" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q52" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R52" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S52" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T52" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U52" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V52" s="41"/>
       <c r="W52" s="10"/>
       <c r="X52" s="20"/>
     </row>
     <row r="53" spans="8:24">
-      <c r="J53" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K53" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L53" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J53" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+      </c>
+      <c r="K53" s="124" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="L53" s="38">
+        <f ca="1"/>
+        <v>4.1219483287832544E-2</v>
       </c>
       <c r="M53" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N53" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O53" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P53" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q53" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R53" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S53" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T53" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U53" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V53" s="41"/>
       <c r="W53" s="10"/>
       <c r="X53" s="20"/>
     </row>
     <row r="54" spans="8:24">
-      <c r="J54" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L54" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J54" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+      </c>
+      <c r="K54" s="124" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
+      </c>
+      <c r="L54" s="38">
+        <f ca="1"/>
+        <v>1.5585295155031499E-5</v>
       </c>
       <c r="M54" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N54" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O54" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P54" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q54" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R54" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S54" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T54" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U54" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V54" s="41"/>
       <c r="W54" s="10"/>
       <c r="X54" s="20"/>
     </row>
     <row r="55" spans="8:24">
-      <c r="J55" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L55" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J55" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+      </c>
+      <c r="K55" s="124" t="str">
+        <f ca="1"/>
+        <v>DirtyPrice</v>
+      </c>
+      <c r="L55" s="38">
+        <f ca="1"/>
+        <v>1.00531642512639</v>
       </c>
       <c r="M55" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N55" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O55" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P55" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q55" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R55" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S55" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T55" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U55" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V55" s="41"/>
       <c r="W55" s="10"/>
       <c r="X55" s="20"/>
     </row>
     <row r="56" spans="8:24">
-      <c r="J56" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K56" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L56" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J56" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+      </c>
+      <c r="K56" s="124" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="L56" s="38">
+        <f ca="1"/>
+        <v>100.50961270637848</v>
       </c>
       <c r="M56" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N56" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O56" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P56" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q56" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R56" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S56" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T56" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U56" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V56" s="41"/>
       <c r="W56" s="10"/>
       <c r="X56" s="20"/>
     </row>
     <row r="57" spans="8:24">
-      <c r="J57" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K57" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L57" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J57" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+      </c>
+      <c r="K57" s="124" t="str">
+        <f ca="1"/>
+        <v>DeltaR</v>
+      </c>
+      <c r="L57" s="38">
+        <f ca="1"/>
+        <v>4.9226172101913879E-2</v>
       </c>
       <c r="M57" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N57" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O57" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P57" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q57" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R57" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S57" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T57" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U57" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V57" s="41"/>
       <c r="W57" s="10"/>
       <c r="X57" s="20"/>
     </row>
     <row r="58" spans="8:24">
-      <c r="J58" s="123" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K58" s="126" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L58" s="38" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="J58" s="121" t="str">
+        <f ca="1"/>
+        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+      </c>
+      <c r="K58" s="124" t="str">
+        <f ca="1"/>
+        <v>AssetSwapSpread</v>
+      </c>
+      <c r="L58" s="38">
+        <f ca="1"/>
+        <v>1.0377767056683269E-6</v>
       </c>
       <c r="M58" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="N58" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="O58" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="P58" s="55" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="Q58" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="R58" s="58" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="S58" s="20" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="T58" s="52" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="U58" s="10" t="e">
         <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>#N/A</v>
       </c>
       <c r="V58" s="41"/>
       <c r="W58" s="10"/>
       <c r="X58" s="20"/>
     </row>
     <row r="59" spans="8:24">
-      <c r="J59" s="123"/>
-      <c r="K59" s="126"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="124"/>
       <c r="L59" s="38"/>
       <c r="M59" s="10"/>
       <c r="N59" s="20"/>
@@ -7320,8 +7330,8 @@
       <c r="X59" s="20"/>
     </row>
     <row r="60" spans="8:24">
-      <c r="J60" s="123"/>
-      <c r="K60" s="127"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="125"/>
       <c r="L60" s="38"/>
       <c r="M60" s="10"/>
       <c r="N60" s="20"/>
@@ -7337,8 +7347,8 @@
       <c r="X60" s="20"/>
     </row>
     <row r="61" spans="8:24">
-      <c r="J61" s="123"/>
-      <c r="K61" s="127"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="125"/>
       <c r="L61" s="38"/>
       <c r="M61" s="10"/>
       <c r="N61" s="20"/>
@@ -7354,8 +7364,8 @@
       <c r="X61" s="20"/>
     </row>
     <row r="62" spans="8:24">
-      <c r="J62" s="123"/>
-      <c r="K62" s="127"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="125"/>
       <c r="L62" s="38"/>
       <c r="M62" s="10"/>
       <c r="N62" s="20"/>
@@ -7371,8 +7381,8 @@
       <c r="X62" s="20"/>
     </row>
     <row r="63" spans="8:24">
-      <c r="J63" s="123"/>
-      <c r="K63" s="127"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="125"/>
       <c r="L63" s="38"/>
       <c r="M63" s="10"/>
       <c r="N63" s="20"/>
@@ -7388,8 +7398,8 @@
       <c r="X63" s="20"/>
     </row>
     <row r="64" spans="8:24">
-      <c r="J64" s="123"/>
-      <c r="K64" s="127"/>
+      <c r="J64" s="121"/>
+      <c r="K64" s="125"/>
       <c r="L64" s="38"/>
       <c r="M64" s="10"/>
       <c r="N64" s="20"/>
@@ -7405,8 +7415,8 @@
       <c r="X64" s="20"/>
     </row>
     <row r="65" spans="10:24">
-      <c r="J65" s="123"/>
-      <c r="K65" s="127"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="125"/>
       <c r="L65" s="38"/>
       <c r="M65" s="10"/>
       <c r="N65" s="20"/>
@@ -7422,8 +7432,8 @@
       <c r="X65" s="20"/>
     </row>
     <row r="66" spans="10:24">
-      <c r="J66" s="123"/>
-      <c r="K66" s="127"/>
+      <c r="J66" s="121"/>
+      <c r="K66" s="125"/>
       <c r="L66" s="38"/>
       <c r="M66" s="10"/>
       <c r="N66" s="20"/>
@@ -7439,8 +7449,8 @@
       <c r="X66" s="20"/>
     </row>
     <row r="67" spans="10:24">
-      <c r="J67" s="123"/>
-      <c r="K67" s="127"/>
+      <c r="J67" s="121"/>
+      <c r="K67" s="125"/>
       <c r="L67" s="38"/>
       <c r="M67" s="10"/>
       <c r="N67" s="20"/>
@@ -7456,8 +7466,8 @@
       <c r="X67" s="20"/>
     </row>
     <row r="68" spans="10:24">
-      <c r="J68" s="123"/>
-      <c r="K68" s="127"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="125"/>
       <c r="L68" s="38"/>
       <c r="M68" s="10"/>
       <c r="N68" s="20"/>
@@ -7473,8 +7483,8 @@
       <c r="X68" s="20"/>
     </row>
     <row r="69" spans="10:24">
-      <c r="J69" s="123"/>
-      <c r="K69" s="127"/>
+      <c r="J69" s="121"/>
+      <c r="K69" s="125"/>
       <c r="L69" s="38"/>
       <c r="M69" s="10"/>
       <c r="N69" s="20"/>
@@ -7490,8 +7500,8 @@
       <c r="X69" s="20"/>
     </row>
     <row r="70" spans="10:24" ht="12" thickBot="1">
-      <c r="J70" s="124"/>
-      <c r="K70" s="128"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="126"/>
       <c r="L70" s="39"/>
       <c r="M70" s="24"/>
       <c r="N70" s="25"/>

--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Bonds/BondAssets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Bonds/BondAssets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Bonds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B72D035-F006-4454-B452-E6A6AE362B15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C41F9D6-62AE-47EF-9041-75D3035D8524}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1230" windowWidth="21600" windowHeight="13845" tabRatio="497" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="690" windowWidth="23940" windowHeight="13845" tabRatio="497" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="5" r:id="rId1"/>
@@ -3072,7 +3072,7 @@
     <row r="49" spans="2:13">
       <c r="B49" s="98" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 04-Jun-19</v>
+        <v>Last Update 24-Jun-19</v>
       </c>
       <c r="C49" s="91"/>
       <c r="D49" s="91"/>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C3" s="104">
         <f ca="1">NOW()</f>
-        <v>43620.688124768516</v>
+        <v>43640.48577013889</v>
       </c>
       <c r="D3" s="26"/>
       <c r="I3" t="str">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="C4" s="106">
         <f ca="1">C3</f>
-        <v>43620.688124768516</v>
+        <v>43640.48577013889</v>
       </c>
       <c r="D4" s="26"/>
     </row>
@@ -3798,7 +3798,7 @@
   <dimension ref="A1:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -3814,7 +3814,7 @@
     <col min="9" max="9" width="4.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="24.140625" style="6" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="11.42578125" style="6" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="7.140625" style="6" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="8.85546875" style="6" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="14.42578125" style="6" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="5.7109375" style="6" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="5.42578125" style="6" bestFit="1" customWidth="1" outlineLevel="1"/>
@@ -3875,7 +3875,7 @@
     <row r="2" spans="1:26" ht="12" thickBot="1">
       <c r="A2" s="7" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateSimpleBond(B2, B38, E2, F2, G2)</f>
-        <v>AUD-Bond-AGB.0.04.28/02/2022</v>
+        <v>AUD-Bond-AGB.0.04.20/03/2022</v>
       </c>
       <c r="B2" s="13" t="str">
         <f>C2&amp;"-Bond-"&amp;D2</f>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="E2" s="83">
         <f ca="1">TODAY()+1000</f>
-        <v>44620</v>
+        <v>44640</v>
       </c>
       <c r="F2" s="36">
         <v>0.04</v>
@@ -3926,7 +3926,7 @@
     <row r="3" spans="1:26">
       <c r="A3" s="13" t="str">
         <f t="array" aca="1" ref="A3:A22" ca="1">_xll.HLV5r3.Financial.Cache.CreateSimpleBonds(B3:B22, $B$38, E3:E22, F3:F22, G3:G22)</f>
-        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+        <v>AUD-Bond-AGB.0.04.21/06/2020</v>
       </c>
       <c r="B3" s="13" t="str">
         <f>C3&amp;"-Bond-"&amp;D3</f>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="E3" s="83">
         <f ca="1">TODAY()+363</f>
-        <v>43983</v>
+        <v>44003</v>
       </c>
       <c r="F3" s="36">
         <v>0.04</v>
@@ -3954,7 +3954,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="14" t="str">
         <f t="array" aca="1" ref="J3:X22" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet($H$2:$H$7,$B$36, A3:A22, $B$38)</f>
-        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+        <v>AUD-Bond-AGB.0.04.21/06/2020</v>
       </c>
       <c r="K3" s="15" t="str">
         <f ca="1"/>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="P3" s="117">
         <f ca="1"/>
-        <v>9.7348357975800652E-3</v>
+        <v>9.7337164492171183E-3</v>
       </c>
       <c r="Q3" s="16" t="str">
         <f ca="1"/>
@@ -4018,7 +4018,7 @@
     <row r="4" spans="1:26">
       <c r="A4" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+        <v>AUD-Bond-AGB.0.04.26/07/2021</v>
       </c>
       <c r="B4" s="13" t="str">
         <f t="shared" ref="B4:B22" si="0">C4&amp;"-Bond-"&amp;D4</f>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="E4" s="83">
         <f t="shared" ref="E4:E22" ca="1" si="1">E3+400</f>
-        <v>44383</v>
+        <v>44403</v>
       </c>
       <c r="F4" s="36">
         <v>0.04</v>
@@ -4046,7 +4046,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+        <v>AUD-Bond-AGB.0.04.26/07/2021</v>
       </c>
       <c r="K4" s="10" t="str">
         <f ca="1"/>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="P4" s="118">
         <f ca="1"/>
-        <v>2.3933118071269927E-2</v>
+        <v>2.3932000570792946E-2</v>
       </c>
       <c r="Q4" s="20" t="str">
         <f ca="1"/>
@@ -4110,7 +4110,7 @@
     <row r="5" spans="1:26">
       <c r="A5" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+        <v>AUD-Bond-AGB.0.04.30/08/2022</v>
       </c>
       <c r="B5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="E5" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>44783</v>
+        <v>44803</v>
       </c>
       <c r="F5" s="36">
         <v>0.04</v>
@@ -4138,7 +4138,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+        <v>AUD-Bond-AGB.0.04.30/08/2022</v>
       </c>
       <c r="K5" s="10" t="str">
         <f ca="1"/>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="L5" s="38">
         <f ca="1"/>
-        <v>1.0127720614331199</v>
+        <v>1.0128507778089599</v>
       </c>
       <c r="M5" s="10" t="str">
         <f ca="1"/>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="N5" s="128">
         <f ca="1"/>
-        <v>101.25501295941307</v>
+        <v>101.26288287206106</v>
       </c>
       <c r="O5" s="10" t="str">
         <f ca="1"/>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="P5" s="118">
         <f ca="1"/>
-        <v>3.2740001264981632E-2</v>
+        <v>3.2796514448903885E-2</v>
       </c>
       <c r="Q5" s="20" t="str">
         <f ca="1"/>
@@ -4202,7 +4202,7 @@
     <row r="6" spans="1:26">
       <c r="A6" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+        <v>AUD-Bond-AGB.0.04.4/10/2023</v>
       </c>
       <c r="B6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="E6" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45183</v>
+        <v>45203</v>
       </c>
       <c r="F6" s="36">
         <v>0.04</v>
@@ -4228,7 +4228,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+        <v>AUD-Bond-AGB.0.04.4/10/2023</v>
       </c>
       <c r="K6" s="10" t="str">
         <f ca="1"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="L6" s="38">
         <f ca="1"/>
-        <v>1.00908131705403</v>
+        <v>1.0090219743548801</v>
       </c>
       <c r="M6" s="10" t="str">
         <f ca="1"/>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="N6" s="128">
         <f ca="1"/>
-        <v>100.88601939791432</v>
+        <v>100.88008642839404</v>
       </c>
       <c r="O6" s="10" t="str">
         <f ca="1"/>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="P6" s="118">
         <f ca="1"/>
-        <v>4.1219483287832544E-2</v>
+        <v>4.1191409225107611E-2</v>
       </c>
       <c r="Q6" s="20" t="str">
         <f ca="1"/>
@@ -4292,7 +4292,7 @@
     <row r="7" spans="1:26">
       <c r="A7" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+        <v>AUD-Bond-AGB.0.04.7/11/2024</v>
       </c>
       <c r="B7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="E7" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45583</v>
+        <v>45603</v>
       </c>
       <c r="F7" s="36">
         <v>0.04</v>
@@ -4318,7 +4318,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+        <v>AUD-Bond-AGB.0.04.7/11/2024</v>
       </c>
       <c r="K7" s="10" t="str">
         <f ca="1"/>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="L7" s="38">
         <f ca="1"/>
-        <v>1.00531642512639</v>
+        <v>1.00539565310765</v>
       </c>
       <c r="M7" s="10" t="str">
         <f ca="1"/>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="N7" s="128">
         <f ca="1"/>
-        <v>100.50961270637848</v>
+        <v>100.51753376835751</v>
       </c>
       <c r="O7" s="10" t="str">
         <f ca="1"/>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="P7" s="118">
         <f ca="1"/>
-        <v>4.9226172101913879E-2</v>
+        <v>4.9252746987900338E-2</v>
       </c>
       <c r="Q7" s="20" t="str">
         <f ca="1"/>
@@ -4382,7 +4382,7 @@
     <row r="8" spans="1:26">
       <c r="A8" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.22/11/2025</v>
+        <v>AUD-Bond-AGB.0.04.12/12/2025</v>
       </c>
       <c r="B8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="E8" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>45983</v>
+        <v>46003</v>
       </c>
       <c r="F8" s="36">
         <v>0.04</v>
@@ -4408,7 +4408,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.22/11/2025</v>
+        <v>AUD-Bond-AGB.0.04.12/12/2025</v>
       </c>
       <c r="K8" s="10" t="str">
         <f ca="1"/>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="L8" s="38">
         <f ca="1"/>
-        <v>1.00161564837228</v>
+        <v>1.0015161032178801</v>
       </c>
       <c r="M8" s="10" t="str">
         <f ca="1"/>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="N8" s="128">
         <f ca="1"/>
-        <v>100.13961612722022</v>
+        <v>100.12966379314365</v>
       </c>
       <c r="O8" s="10" t="str">
         <f ca="1"/>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="P8" s="118">
         <f ca="1"/>
-        <v>5.6882314839381963E-2</v>
+        <v>5.685377170907991E-2</v>
       </c>
       <c r="Q8" s="20" t="str">
         <f ca="1"/>
@@ -4472,7 +4472,7 @@
     <row r="9" spans="1:26">
       <c r="A9" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.27/12/2026</v>
+        <v>AUD-Bond-AGB.0.04.16/01/2027</v>
       </c>
       <c r="B9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="E9" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>46383</v>
+        <v>46403</v>
       </c>
       <c r="F9" s="36">
         <v>0.04</v>
@@ -4498,7 +4498,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.27/12/2026</v>
+        <v>AUD-Bond-AGB.0.04.16/01/2027</v>
       </c>
       <c r="K9" s="10" t="str">
         <f ca="1"/>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="L9" s="38">
         <f ca="1"/>
-        <v>1.0176720437032101</v>
+        <v>1.0177705417429499</v>
       </c>
       <c r="M9" s="10" t="str">
         <f ca="1"/>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="N9" s="128">
         <f ca="1"/>
-        <v>101.74490381161212</v>
+        <v>101.75475145716845</v>
       </c>
       <c r="O9" s="10" t="str">
         <f ca="1"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="P9" s="118">
         <f ca="1"/>
-        <v>6.9094148293932178E-2</v>
+        <v>6.9096879258069052E-2</v>
       </c>
       <c r="Q9" s="20" t="str">
         <f ca="1"/>
@@ -4562,7 +4562,7 @@
     <row r="10" spans="1:26">
       <c r="A10" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.31/01/2028</v>
+        <v>AUD-Bond-AGB.0.04.20/02/2028</v>
       </c>
       <c r="B10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="E10" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>46783</v>
+        <v>46803</v>
       </c>
       <c r="F10" s="36">
         <v>0.04</v>
@@ -4588,7 +4588,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.31/01/2028</v>
+        <v>AUD-Bond-AGB.0.04.20/02/2028</v>
       </c>
       <c r="K10" s="10" t="str">
         <f ca="1"/>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="P10" s="118">
         <f ca="1"/>
-        <v>7.6008949096342496E-2</v>
+        <v>7.6000770358030406E-2</v>
       </c>
       <c r="Q10" s="20" t="str">
         <f ca="1"/>
@@ -4652,7 +4652,7 @@
     <row r="11" spans="1:26">
       <c r="A11" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.6/03/2029</v>
+        <v>AUD-Bond-AGB.0.04.26/03/2029</v>
       </c>
       <c r="B11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="E11" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>47183</v>
+        <v>47203</v>
       </c>
       <c r="F11" s="36">
         <v>0.04</v>
@@ -4678,7 +4678,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.6/03/2029</v>
+        <v>AUD-Bond-AGB.0.04.26/03/2029</v>
       </c>
       <c r="K11" s="10" t="str">
         <f ca="1"/>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="P11" s="118">
         <f ca="1"/>
-        <v>8.2601629578798144E-2</v>
+        <v>8.2599596219098098E-2</v>
       </c>
       <c r="Q11" s="20" t="str">
         <f ca="1"/>
@@ -4742,7 +4742,7 @@
     <row r="12" spans="1:26">
       <c r="A12" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.10/04/2030</v>
+        <v>AUD-Bond-AGB.0.04.30/04/2030</v>
       </c>
       <c r="B12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E12" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>47583</v>
+        <v>47603</v>
       </c>
       <c r="F12" s="36">
         <v>0.04</v>
@@ -4768,7 +4768,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.10/04/2030</v>
+        <v>AUD-Bond-AGB.0.04.30/04/2030</v>
       </c>
       <c r="K12" s="10" t="str">
         <f ca="1"/>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="P12" s="118">
         <f ca="1"/>
-        <v>8.8855473217548359E-2</v>
+        <v>8.88656935434948E-2</v>
       </c>
       <c r="Q12" s="20" t="str">
         <f ca="1"/>
@@ -4832,7 +4832,7 @@
     <row r="13" spans="1:26">
       <c r="A13" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.15/05/2031</v>
+        <v>AUD-Bond-AGB.0.04.4/06/2031</v>
       </c>
       <c r="B13" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="E13" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>47983</v>
+        <v>48003</v>
       </c>
       <c r="F13" s="36">
         <v>0.04</v>
@@ -4858,7 +4858,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.15/05/2031</v>
+        <v>AUD-Bond-AGB.0.04.4/06/2031</v>
       </c>
       <c r="K13" s="10" t="str">
         <f ca="1"/>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="L13" s="38">
         <f ca="1"/>
-        <v>1.00237051066565</v>
+        <v>1.0023834797009601</v>
       </c>
       <c r="M13" s="10" t="str">
         <f ca="1"/>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="N13" s="128">
         <f ca="1"/>
-        <v>100.21508581502896</v>
+        <v>100.21638243436553</v>
       </c>
       <c r="O13" s="10" t="str">
         <f ca="1"/>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="P13" s="118">
         <f ca="1"/>
-        <v>9.4813454129314897E-2</v>
+        <v>9.4813588229457096E-2</v>
       </c>
       <c r="Q13" s="20" t="str">
         <f ca="1"/>
@@ -4922,7 +4922,7 @@
     <row r="14" spans="1:26">
       <c r="A14" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.17/06/2032</v>
+        <v>AUD-Bond-AGB.0.04.7/07/2032</v>
       </c>
       <c r="B14" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="E14" s="83">
         <f ca="1">E13+399</f>
-        <v>48382</v>
+        <v>48402</v>
       </c>
       <c r="F14" s="36">
         <v>0.04</v>
@@ -4948,7 +4948,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.17/06/2032</v>
+        <v>AUD-Bond-AGB.0.04.7/07/2032</v>
       </c>
       <c r="K14" s="10" t="str">
         <f ca="1"/>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="L14" s="38">
         <f ca="1"/>
-        <v>1.01877993094173</v>
+        <v>1.0187731942840199</v>
       </c>
       <c r="M14" s="10" t="str">
         <f ca="1"/>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="N14" s="128">
         <f ca="1"/>
-        <v>101.85566825799225</v>
+        <v>101.85499473984369</v>
       </c>
       <c r="O14" s="10" t="str">
         <f ca="1"/>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="P14" s="118">
         <f ca="1"/>
-        <v>0.10549556075384504</v>
+        <v>0.10546812891815011</v>
       </c>
       <c r="Q14" s="20" t="str">
         <f ca="1"/>
@@ -5012,7 +5012,7 @@
     <row r="15" spans="1:26">
       <c r="A15" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.22/07/2033</v>
+        <v>AUD-Bond-AGB.0.04.11/08/2033</v>
       </c>
       <c r="B15" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="E15" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>48782</v>
+        <v>48802</v>
       </c>
       <c r="F15" s="36">
         <v>0.04</v>
@@ -5038,7 +5038,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.22/07/2033</v>
+        <v>AUD-Bond-AGB.0.04.11/08/2033</v>
       </c>
       <c r="K15" s="10" t="str">
         <f ca="1"/>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="P15" s="118">
         <f ca="1"/>
-        <v>0.11083595989690487</v>
+        <v>0.11083715388692164</v>
       </c>
       <c r="Q15" s="20" t="str">
         <f ca="1"/>
@@ -5102,7 +5102,7 @@
     <row r="16" spans="1:26">
       <c r="A16" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.26/08/2034</v>
+        <v>AUD-Bond-AGB.0.04.15/09/2034</v>
       </c>
       <c r="B16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="E16" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>49182</v>
+        <v>49202</v>
       </c>
       <c r="F16" s="36">
         <v>0.04</v>
@@ -5128,7 +5128,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.26/08/2034</v>
+        <v>AUD-Bond-AGB.0.04.15/09/2034</v>
       </c>
       <c r="K16" s="10" t="str">
         <f ca="1"/>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="L16" s="38">
         <f ca="1"/>
-        <v>1.0110007461444099</v>
+        <v>1.0111468344800201</v>
       </c>
       <c r="M16" s="10" t="str">
         <f ca="1"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="N16" s="128">
         <f ca="1"/>
-        <v>101.07792024591569</v>
+        <v>101.0925258781983</v>
       </c>
       <c r="O16" s="10" t="str">
         <f ca="1"/>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="P16" s="118">
         <f ca="1"/>
-        <v>0.11593876086417822</v>
+        <v>0.11602175714134967</v>
       </c>
       <c r="Q16" s="20" t="str">
         <f ca="1"/>
@@ -5192,7 +5192,7 @@
     <row r="17" spans="1:26">
       <c r="A17" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.30/09/2035</v>
+        <v>AUD-Bond-AGB.0.04.20/10/2035</v>
       </c>
       <c r="B17" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="E17" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>49582</v>
+        <v>49602</v>
       </c>
       <c r="F17" s="36">
         <v>0.04</v>
@@ -5218,7 +5218,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.30/09/2035</v>
+        <v>AUD-Bond-AGB.0.04.20/10/2035</v>
       </c>
       <c r="K17" s="10" t="str">
         <f ca="1"/>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="L17" s="38">
         <f ca="1"/>
-        <v>1.00734520692108</v>
+        <v>1.0072764881473799</v>
       </c>
       <c r="M17" s="10" t="str">
         <f ca="1"/>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="N17" s="128">
         <f ca="1"/>
-        <v>100.71244642853159</v>
+        <v>100.70557605701708</v>
       </c>
       <c r="O17" s="10" t="str">
         <f ca="1"/>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="P17" s="118">
         <f ca="1"/>
-        <v>0.12087885757594044</v>
+        <v>0.12084291079916384</v>
       </c>
       <c r="Q17" s="20" t="str">
         <f ca="1"/>
@@ -5282,7 +5282,7 @@
     <row r="18" spans="1:26">
       <c r="A18" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.3/11/2036</v>
+        <v>AUD-Bond-AGB.0.04.23/11/2036</v>
       </c>
       <c r="B18" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="E18" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>49982</v>
+        <v>50002</v>
       </c>
       <c r="F18" s="36">
         <v>0.04</v>
@@ -5308,7 +5308,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.3/11/2036</v>
+        <v>AUD-Bond-AGB.0.04.23/11/2036</v>
       </c>
       <c r="K18" s="10" t="str">
         <f ca="1"/>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="P18" s="118">
         <f ca="1"/>
-        <v>0.12550342756962579</v>
+        <v>0.12550243992611027</v>
       </c>
       <c r="Q18" s="20" t="str">
         <f ca="1"/>
@@ -5372,7 +5372,7 @@
     <row r="19" spans="1:26">
       <c r="A19" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.8/12/2037</v>
+        <v>AUD-Bond-AGB.0.04.28/12/2037</v>
       </c>
       <c r="B19" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="E19" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>50382</v>
+        <v>50402</v>
       </c>
       <c r="F19" s="36">
         <v>0.04</v>
@@ -5398,7 +5398,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.8/12/2037</v>
+        <v>AUD-Bond-AGB.0.04.28/12/2037</v>
       </c>
       <c r="K19" s="10" t="str">
         <f ca="1"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="P19" s="118">
         <f ca="1"/>
-        <v>0.13483017534937086</v>
+        <v>0.13483092101592969</v>
       </c>
       <c r="Q19" s="20" t="str">
         <f ca="1"/>
@@ -5462,7 +5462,7 @@
     <row r="20" spans="1:26">
       <c r="A20" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.12/01/2039</v>
+        <v>AUD-Bond-AGB.0.04.1/02/2039</v>
       </c>
       <c r="B20" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="E20" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>50782</v>
+        <v>50802</v>
       </c>
       <c r="F20" s="36">
         <v>0.04</v>
@@ -5488,7 +5488,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.12/01/2039</v>
+        <v>AUD-Bond-AGB.0.04.1/02/2039</v>
       </c>
       <c r="K20" s="10" t="str">
         <f ca="1"/>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="P20" s="118">
         <f ca="1"/>
-        <v>0.13896645435225971</v>
+        <v>0.13896158730756458</v>
       </c>
       <c r="Q20" s="20" t="str">
         <f ca="1"/>
@@ -5552,7 +5552,7 @@
     <row r="21" spans="1:26">
       <c r="A21" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.16/02/2040</v>
+        <v>AUD-Bond-AGB.0.04.7/03/2040</v>
       </c>
       <c r="B21" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="E21" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>51182</v>
+        <v>51202</v>
       </c>
       <c r="F21" s="36">
         <v>0.04</v>
@@ -5578,7 +5578,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.16/02/2040</v>
+        <v>AUD-Bond-AGB.0.04.7/03/2040</v>
       </c>
       <c r="K21" s="10" t="str">
         <f ca="1"/>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="L21" s="38">
         <f ca="1"/>
-        <v>1.0121074548097999</v>
+        <v>1.01201779040503</v>
       </c>
       <c r="M21" s="10" t="str">
         <f ca="1"/>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="N21" s="128">
         <f ca="1"/>
-        <v>101.18856686080925</v>
+        <v>101.17960238517577</v>
       </c>
       <c r="O21" s="10" t="str">
         <f ca="1"/>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="P21" s="118">
         <f ca="1"/>
-        <v>0.1428859075967652</v>
+        <v>0.14291146326999876</v>
       </c>
       <c r="Q21" s="20" t="str">
         <f ca="1"/>
@@ -5642,7 +5642,7 @@
     <row r="22" spans="1:26">
       <c r="A22" s="13" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.22/03/2041</v>
+        <v>AUD-Bond-AGB.0.04.11/04/2041</v>
       </c>
       <c r="B22" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="E22" s="83">
         <f t="shared" ca="1" si="1"/>
-        <v>51582</v>
+        <v>51602</v>
       </c>
       <c r="F22" s="36">
         <v>0.04</v>
@@ -5668,7 +5668,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="19" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.22/03/2041</v>
+        <v>AUD-Bond-AGB.0.04.11/04/2041</v>
       </c>
       <c r="K22" s="10" t="str">
         <f ca="1"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="L22" s="38">
         <f ca="1"/>
-        <v>1.0082128882968999</v>
+        <v>1.00825795226635</v>
       </c>
       <c r="M22" s="10" t="str">
         <f ca="1"/>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="N22" s="128">
         <f ca="1"/>
-        <v>100.79919555234626</v>
+        <v>100.80370096179071</v>
       </c>
       <c r="O22" s="10" t="str">
         <f ca="1"/>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="P22" s="118">
         <f ca="1"/>
-        <v>0.14662808581826764</v>
+        <v>0.14662450364581689</v>
       </c>
       <c r="Q22" s="20" t="str">
         <f ca="1"/>
@@ -6138,11 +6138,11 @@
       </c>
       <c r="B38" s="106">
         <f ca="1">AUDCurve!C4</f>
-        <v>43620.688124768516</v>
+        <v>43640.48577013889</v>
       </c>
       <c r="D38" s="6">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetBondAssetSwapSpread(A2, B38, B39, B40, E2, B43, F2, B42, B41, B37, B44, B45, G2, B36)</f>
-        <v>-2.1051484339508375E-4</v>
+        <v>-1.8122058298947419E-4</v>
       </c>
       <c r="H38" s="6" t="str">
         <v>NPV</v>
@@ -6182,14 +6182,14 @@
       </c>
       <c r="B39" s="106">
         <f ca="1">B38+3</f>
-        <v>43623.688124768516</v>
+        <v>43643.48577013889</v>
       </c>
       <c r="H39" s="6" t="str">
         <v>AccruedInterest</v>
       </c>
       <c r="J39" s="120" t="str">
         <f t="array" aca="1" ref="J39:U58" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsRawData( $H$2:$H$7, $B$36, A3:A22, $B$38)</f>
-        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+        <v>AUD-Bond-AGB.0.04.21/06/2020</v>
       </c>
       <c r="K39" s="123" t="str">
         <f ca="1"/>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="J40" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+        <v>AUD-Bond-AGB.0.04.21/06/2020</v>
       </c>
       <c r="K40" s="124" t="str">
         <f ca="1"/>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="J41" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+        <v>AUD-Bond-AGB.0.04.21/06/2020</v>
       </c>
       <c r="K41" s="124" t="str">
         <f ca="1"/>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="L41" s="38">
         <f ca="1"/>
-        <v>9.7348357975800652E-3</v>
+        <v>9.7337164492171183E-3</v>
       </c>
       <c r="M41" s="10" t="e">
         <f ca="1"/>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="J42" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.1/06/2020</v>
+        <v>AUD-Bond-AGB.0.04.21/06/2020</v>
       </c>
       <c r="K42" s="124" t="str">
         <f ca="1"/>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="L42" s="38">
         <f ca="1"/>
-        <v>-1.9621107309635808E-4</v>
+        <v>-3.1432539804813456E-4</v>
       </c>
       <c r="M42" s="10" t="e">
         <f ca="1"/>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="J43" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+        <v>AUD-Bond-AGB.0.04.26/07/2021</v>
       </c>
       <c r="K43" s="124" t="str">
         <f ca="1"/>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="J44" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+        <v>AUD-Bond-AGB.0.04.26/07/2021</v>
       </c>
       <c r="K44" s="124" t="str">
         <f ca="1"/>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="J45" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+        <v>AUD-Bond-AGB.0.04.26/07/2021</v>
       </c>
       <c r="K45" s="124" t="str">
         <f ca="1"/>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="L45" s="38">
         <f ca="1"/>
-        <v>2.3933118071269927E-2</v>
+        <v>2.3932000570792946E-2</v>
       </c>
       <c r="M45" s="10" t="e">
         <f ca="1"/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="J46" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.6/07/2021</v>
+        <v>AUD-Bond-AGB.0.04.26/07/2021</v>
       </c>
       <c r="K46" s="124" t="str">
         <f ca="1"/>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="L46" s="38">
         <f ca="1"/>
-        <v>-2.1166962535973128E-4</v>
+        <v>-2.1360252292045785E-4</v>
       </c>
       <c r="M46" s="10" t="e">
         <f ca="1"/>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="J47" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+        <v>AUD-Bond-AGB.0.04.30/08/2022</v>
       </c>
       <c r="K47" s="124" t="str">
         <f ca="1"/>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="L47" s="38">
         <f ca="1"/>
-        <v>1.0127720614331199</v>
+        <v>1.0128507778089599</v>
       </c>
       <c r="M47" s="10" t="e">
         <f ca="1"/>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="J48" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+        <v>AUD-Bond-AGB.0.04.30/08/2022</v>
       </c>
       <c r="K48" s="124" t="str">
         <f ca="1"/>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L48" s="38">
         <f ca="1"/>
-        <v>101.25501295941307</v>
+        <v>101.26288287206106</v>
       </c>
       <c r="M48" s="10" t="e">
         <f ca="1"/>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="J49" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+        <v>AUD-Bond-AGB.0.04.30/08/2022</v>
       </c>
       <c r="K49" s="124" t="str">
         <f ca="1"/>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="L49" s="38">
         <f ca="1"/>
-        <v>3.2740001264981632E-2</v>
+        <v>3.2796514448903885E-2</v>
       </c>
       <c r="M49" s="10" t="e">
         <f ca="1"/>
@@ -6838,7 +6838,7 @@
     <row r="50" spans="8:24">
       <c r="J50" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.10/08/2022</v>
+        <v>AUD-Bond-AGB.0.04.30/08/2022</v>
       </c>
       <c r="K50" s="124" t="str">
         <f ca="1"/>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="L50" s="38">
         <f ca="1"/>
-        <v>-1.8115544065193577E-4</v>
+        <v>-1.3604615500413983E-4</v>
       </c>
       <c r="M50" s="10" t="e">
         <f ca="1"/>
@@ -6891,7 +6891,7 @@
     <row r="51" spans="8:24">
       <c r="J51" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+        <v>AUD-Bond-AGB.0.04.4/10/2023</v>
       </c>
       <c r="K51" s="124" t="str">
         <f ca="1"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="L51" s="38">
         <f ca="1"/>
-        <v>1.00908131705403</v>
+        <v>1.0090219743548801</v>
       </c>
       <c r="M51" s="10" t="e">
         <f ca="1"/>
@@ -6944,7 +6944,7 @@
     <row r="52" spans="8:24">
       <c r="J52" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+        <v>AUD-Bond-AGB.0.04.4/10/2023</v>
       </c>
       <c r="K52" s="124" t="str">
         <f ca="1"/>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="L52" s="38">
         <f ca="1"/>
-        <v>100.88601939791432</v>
+        <v>100.88008642839404</v>
       </c>
       <c r="M52" s="10" t="e">
         <f ca="1"/>
@@ -6997,7 +6997,7 @@
     <row r="53" spans="8:24">
       <c r="J53" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+        <v>AUD-Bond-AGB.0.04.4/10/2023</v>
       </c>
       <c r="K53" s="124" t="str">
         <f ca="1"/>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="L53" s="38">
         <f ca="1"/>
-        <v>4.1219483287832544E-2</v>
+        <v>4.1191409225107611E-2</v>
       </c>
       <c r="M53" s="10" t="e">
         <f ca="1"/>
@@ -7050,7 +7050,7 @@
     <row r="54" spans="8:24">
       <c r="J54" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.14/09/2023</v>
+        <v>AUD-Bond-AGB.0.04.4/10/2023</v>
       </c>
       <c r="K54" s="124" t="str">
         <f ca="1"/>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="L54" s="38">
         <f ca="1"/>
-        <v>1.5585295155031499E-5</v>
+        <v>3.1312201725133846E-6</v>
       </c>
       <c r="M54" s="10" t="e">
         <f ca="1"/>
@@ -7103,7 +7103,7 @@
     <row r="55" spans="8:24">
       <c r="J55" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+        <v>AUD-Bond-AGB.0.04.7/11/2024</v>
       </c>
       <c r="K55" s="124" t="str">
         <f ca="1"/>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="L55" s="38">
         <f ca="1"/>
-        <v>1.00531642512639</v>
+        <v>1.00539565310765</v>
       </c>
       <c r="M55" s="10" t="e">
         <f ca="1"/>
@@ -7156,7 +7156,7 @@
     <row r="56" spans="8:24">
       <c r="J56" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+        <v>AUD-Bond-AGB.0.04.7/11/2024</v>
       </c>
       <c r="K56" s="124" t="str">
         <f ca="1"/>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="L56" s="38">
         <f ca="1"/>
-        <v>100.50961270637848</v>
+        <v>100.51753376835751</v>
       </c>
       <c r="M56" s="10" t="e">
         <f ca="1"/>
@@ -7209,7 +7209,7 @@
     <row r="57" spans="8:24">
       <c r="J57" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+        <v>AUD-Bond-AGB.0.04.7/11/2024</v>
       </c>
       <c r="K57" s="124" t="str">
         <f ca="1"/>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="L57" s="38">
         <f ca="1"/>
-        <v>4.9226172101913879E-2</v>
+        <v>4.9252746987900338E-2</v>
       </c>
       <c r="M57" s="10" t="e">
         <f ca="1"/>
@@ -7262,7 +7262,7 @@
     <row r="58" spans="8:24">
       <c r="J58" s="121" t="str">
         <f ca="1"/>
-        <v>AUD-Bond-AGB.0.04.18/10/2024</v>
+        <v>AUD-Bond-AGB.0.04.7/11/2024</v>
       </c>
       <c r="K58" s="124" t="str">
         <f ca="1"/>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="L58" s="38">
         <f ca="1"/>
-        <v>1.0377767056683269E-6</v>
+        <v>6.730465234044659E-6</v>
       </c>
       <c r="M58" s="10" t="e">
         <f ca="1"/>
